--- a/local_tree_species_data.xlsx
+++ b/local_tree_species_data.xlsx
@@ -14,111 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Tree Name</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>CO2_per_year_kg</t>
-  </si>
-  <si>
-    <t>Max_Age</t>
-  </si>
-  <si>
-    <t>Common_Location</t>
+    <t>CO2_per_year</t>
+  </si>
+  <si>
+    <t>Soil Type</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Area_required_per_tree</t>
   </si>
   <si>
     <t>Neem</t>
   </si>
   <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Teak</t>
+  </si>
+  <si>
     <t>Indian Almond</t>
   </si>
   <si>
-    <t>Pongamia</t>
-  </si>
-  <si>
     <t>Banyan</t>
   </si>
   <si>
-    <t>Peepal</t>
-  </si>
-  <si>
-    <t>Teak</t>
-  </si>
-  <si>
-    <t>Jamun</t>
-  </si>
-  <si>
-    <t>Casuarina</t>
-  </si>
-  <si>
-    <t>Tamarind</t>
-  </si>
-  <si>
-    <t>Amla</t>
-  </si>
-  <si>
-    <t>Azadirachta indica</t>
-  </si>
-  <si>
-    <t>Terminalia catappa</t>
-  </si>
-  <si>
-    <t>Millettia pinnata</t>
-  </si>
-  <si>
-    <t>Ficus benghalensis</t>
-  </si>
-  <si>
-    <t>Ficus religiosa</t>
-  </si>
-  <si>
-    <t>Tectona grandis</t>
-  </si>
-  <si>
-    <t>Syzygium cumini</t>
-  </si>
-  <si>
-    <t>Casuarina equisetifolia</t>
-  </si>
-  <si>
-    <t>Tamarindus indica</t>
-  </si>
-  <si>
-    <t>Phyllanthus emblica</t>
-  </si>
-  <si>
-    <t>East Godavari</t>
-  </si>
-  <si>
-    <t>Kakinada</t>
-  </si>
-  <si>
-    <t>Godavari Belt</t>
-  </si>
-  <si>
-    <t>Rural &amp; Urban Areas</t>
-  </si>
-  <si>
-    <t>Village Roads</t>
-  </si>
-  <si>
-    <t>Plantations &amp; Farms</t>
-  </si>
-  <si>
-    <t>Home Gardens</t>
-  </si>
-  <si>
-    <t>Coastal Belt</t>
-  </si>
-  <si>
-    <t>Village Borders</t>
-  </si>
-  <si>
-    <t>Backyards &amp; Schools</t>
+    <t>red,black</t>
+  </si>
+  <si>
+    <t>red,clay</t>
+  </si>
+  <si>
+    <t>black,sandy</t>
+  </si>
+  <si>
+    <t>sandy,clay</t>
+  </si>
+  <si>
+    <t>red,black,clay</t>
+  </si>
+  <si>
+    <t>CO2,shade</t>
+  </si>
+  <si>
+    <t>fruit,shade</t>
+  </si>
+  <si>
+    <t>timber,CO2</t>
+  </si>
+  <si>
+    <t>fruit,CO2</t>
+  </si>
+  <si>
+    <t>shade,CO2</t>
   </si>
 </sst>
 </file>
@@ -476,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,170 +458,85 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+      <c r="E2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
+      <c r="E3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
+      <c r="E4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>150</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
+      <c r="E6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/local_tree_species_data.xlsx
+++ b/local_tree_species_data.xlsx
@@ -14,66 +14,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Tree Name</t>
   </si>
   <si>
-    <t>CO2_per_year</t>
-  </si>
-  <si>
-    <t>Soil Type</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Area_required_per_tree</t>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>CO2_per_year_kg</t>
+  </si>
+  <si>
+    <t>Max_Age</t>
+  </si>
+  <si>
+    <t>Common_Location</t>
   </si>
   <si>
     <t>Neem</t>
   </si>
   <si>
-    <t>Mango</t>
+    <t>Indian Almond</t>
+  </si>
+  <si>
+    <t>Pongamia</t>
+  </si>
+  <si>
+    <t>Banyan</t>
+  </si>
+  <si>
+    <t>Peepal</t>
   </si>
   <si>
     <t>Teak</t>
   </si>
   <si>
-    <t>Indian Almond</t>
-  </si>
-  <si>
-    <t>Banyan</t>
-  </si>
-  <si>
-    <t>red,black</t>
-  </si>
-  <si>
-    <t>red,clay</t>
-  </si>
-  <si>
-    <t>black,sandy</t>
-  </si>
-  <si>
-    <t>sandy,clay</t>
-  </si>
-  <si>
-    <t>red,black,clay</t>
-  </si>
-  <si>
-    <t>CO2,shade</t>
-  </si>
-  <si>
-    <t>fruit,shade</t>
-  </si>
-  <si>
-    <t>timber,CO2</t>
-  </si>
-  <si>
-    <t>fruit,CO2</t>
-  </si>
-  <si>
-    <t>shade,CO2</t>
+    <t>Jamun</t>
+  </si>
+  <si>
+    <t>Casuarina</t>
+  </si>
+  <si>
+    <t>Tamarind</t>
+  </si>
+  <si>
+    <t>Amla</t>
+  </si>
+  <si>
+    <t>Azadirachta indica</t>
+  </si>
+  <si>
+    <t>Terminalia catappa</t>
+  </si>
+  <si>
+    <t>Millettia pinnata</t>
+  </si>
+  <si>
+    <t>Ficus benghalensis</t>
+  </si>
+  <si>
+    <t>Ficus religiosa</t>
+  </si>
+  <si>
+    <t>Tectona grandis</t>
+  </si>
+  <si>
+    <t>Syzygium cumini</t>
+  </si>
+  <si>
+    <t>Casuarina equisetifolia</t>
+  </si>
+  <si>
+    <t>Tamarindus indica</t>
+  </si>
+  <si>
+    <t>Phyllanthus emblica</t>
+  </si>
+  <si>
+    <t>East Godavari</t>
+  </si>
+  <si>
+    <t>Kakinada</t>
+  </si>
+  <si>
+    <t>Godavari Belt</t>
+  </si>
+  <si>
+    <t>Rural &amp; Urban Areas</t>
+  </si>
+  <si>
+    <t>Village Roads</t>
+  </si>
+  <si>
+    <t>Plantations &amp; Farms</t>
+  </si>
+  <si>
+    <t>Home Gardens</t>
+  </si>
+  <si>
+    <t>Coastal Belt</t>
+  </si>
+  <si>
+    <t>Village Borders</t>
+  </si>
+  <si>
+    <t>Backyards &amp; Schools</t>
   </si>
 </sst>
 </file>
@@ -431,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,85 +503,170 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>4</v>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>5</v>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
-        <v>6</v>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/local_tree_species_data.xlsx
+++ b/local_tree_species_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vangala saranya\OneDrive\Desktop\afforestation_model\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFE9F4-2664-43BD-8E89-31F2A87DDB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Tree Name</t>
   </si>
@@ -119,13 +125,19 @@
   </si>
   <si>
     <t>Backyards &amp; Schools</t>
+  </si>
+  <si>
+    <t>Growth_factor</t>
+  </si>
+  <si>
+    <t>Survival_rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,13 +185,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -188,13 +214,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +266,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,6 +300,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,9 +335,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,14 +511,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +536,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -515,8 +559,14 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0.85</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -532,8 +582,14 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -549,8 +605,14 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -566,8 +628,14 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -583,8 +651,14 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0.85</v>
+      </c>
+      <c r="G6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -600,8 +674,14 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0.75</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -617,8 +697,14 @@
       <c r="E8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -634,8 +720,14 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0.65</v>
+      </c>
+      <c r="G9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -651,8 +743,14 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0.75</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -667,6 +765,12 @@
       </c>
       <c r="E11" t="s">
         <v>34</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/local_tree_species_data.xlsx
+++ b/local_tree_species_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vangala saranya\OneDrive\Desktop\afforestation_model\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFE9F4-2664-43BD-8E89-31F2A87DDB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB718CF-E71F-4D6B-8876-6F1DEF7EE943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Tree Name</t>
   </si>
@@ -131,6 +131,72 @@
   </si>
   <si>
     <t>Survival_rate</t>
+  </si>
+  <si>
+    <t>Soil_Type</t>
+  </si>
+  <si>
+    <t>Sandy loam</t>
+  </si>
+  <si>
+    <t>Coastal sandy</t>
+  </si>
+  <si>
+    <t>Clay loam</t>
+  </si>
+  <si>
+    <t>Alluvial</t>
+  </si>
+  <si>
+    <t>Loamy</t>
+  </si>
+  <si>
+    <t>Deep well-drained</t>
+  </si>
+  <si>
+    <t>Clay, loam</t>
+  </si>
+  <si>
+    <t>Sandy coastal</t>
+  </si>
+  <si>
+    <t>Red loamy</t>
+  </si>
+  <si>
+    <t>Light loam</t>
+  </si>
+  <si>
+    <t>Best_Place_to_Plant</t>
+  </si>
+  <si>
+    <t>Village roads, farmlands</t>
+  </si>
+  <si>
+    <t>Near beaches, urban gardens</t>
+  </si>
+  <si>
+    <t>Water canals, village edges</t>
+  </si>
+  <si>
+    <t>Public parks, town centers</t>
+  </si>
+  <si>
+    <t>Temple surroundings, roadsides</t>
+  </si>
+  <si>
+    <t>Forest plantations</t>
+  </si>
+  <si>
+    <t>Backyards, homesteads</t>
+  </si>
+  <si>
+    <t>Seashores, coastal fences</t>
+  </si>
+  <si>
+    <t>Borderlines, farmlands</t>
+  </si>
+  <si>
+    <t>School gardens, home compounds</t>
   </si>
 </sst>
 </file>
@@ -200,13 +266,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +617,14 @@
       <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -565,8 +646,14 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -588,8 +675,14 @@
       <c r="G3">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -611,8 +704,14 @@
       <c r="G4">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -634,8 +733,14 @@
       <c r="G5">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -657,8 +762,14 @@
       <c r="G6">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -680,8 +791,14 @@
       <c r="G7">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -703,8 +820,14 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -726,8 +849,14 @@
       <c r="G9">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -749,8 +878,14 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -771,6 +906,12 @@
       </c>
       <c r="G11">
         <v>0.9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
